--- a/Data/Demand rates/DemandInputSmallD2.xlsx
+++ b/Data/Demand rates/DemandInputSmallD2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105ED0A9-7FA8-45C8-90AC-99814C037CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lambdapeak" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,16 +334,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>1</v>
       </c>
@@ -353,7 +354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -370,7 +371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -387,7 +388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -404,7 +405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -421,7 +422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -438,7 +439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -455,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -472,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -489,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -512,16 +513,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>3</v>
       </c>
@@ -532,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -549,7 +550,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -566,7 +567,7 @@
         <v>4.6666666666666697E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -583,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -600,7 +601,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -617,7 +618,7 @@
         <v>3.3333333333333298E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -634,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -651,7 +652,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -668,7 +669,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -691,16 +692,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>1</v>
       </c>
@@ -711,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -728,7 +729,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -745,7 +746,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -762,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -779,7 +780,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -796,7 +797,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -813,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -830,7 +831,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -847,7 +848,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -870,16 +871,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>3</v>
       </c>
@@ -890,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -907,7 +908,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -924,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -941,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -958,7 +959,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -975,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -992,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
